--- a/biology/Zoologie/Erythrolamprus_albertguentheri/Erythrolamprus_albertguentheri.xlsx
+++ b/biology/Zoologie/Erythrolamprus_albertguentheri/Erythrolamprus_albertguentheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus albertguentheri  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus albertguentheri  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Argentine dans les provinces du Chaco, de Formosa, de Salta et de Santiago del Estero ;
 en Bolivie ;
 au Paraguay.</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Albert Charles Lewis Günther[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Albert Charles Lewis Günther.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grazziotin, Zaher, Murphy, Scrocchi, Benavides, Zhang &amp; Bonatto, 2012 : Molecular phylogeny of the New World Dipsadidae (Serpentes: Colubroidea): a reappraisal. Cladistics, vol. 28, no 5, p. 437–459.
 Peracca, 1897 : Rettili e Anfibi. Viaggio del Dott. Alfredo Borelli nel Chaco boliviano e nella Repubblica Argentina. Bollettino dei Musei di Zoologia ed Anatomia Comparata della R. Università di Torino, vol. 12, n. 274, p. 1-19 (texte intégral).</t>
